--- a/data/fall2425_ra_info.xlsx
+++ b/data/fall2425_ra_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatih\Desktop\2024-2025 GÜZ SINAVLAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berkercin\Desktop\Projects\Scheduling\Campus-Scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C37FF9B-35DB-49C0-AFCB-0EF2246D85D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C716D8DF-D1C8-4A60-BA32-CB35BC5D7CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arş.Gör." sheetId="5" r:id="rId1"/>
@@ -429,7 +429,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +520,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -729,7 +771,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,41 +922,71 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -922,47 +994,32 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -970,47 +1027,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5D2EA03F-9F55-4165-AB85-FFB67CFD4468}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{81A8A718-24BD-4D95-9550-98CC5FD23D3D}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1038,46 +1055,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1336,7 +1313,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="63" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="16">
@@ -1349,7 +1326,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="14" t="s">
         <v>63</v>
       </c>
@@ -1358,20 +1335,20 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="67">
         <v>8</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1379,73 +1356,73 @@
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="65"/>
     </row>
     <row r="8" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="65"/>
     </row>
     <row r="9" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="65"/>
     </row>
     <row r="11" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="55"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
     </row>
     <row r="13" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="67">
         <v>1</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="65">
         <v>1</v>
       </c>
     </row>
@@ -1453,24 +1430,24 @@
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
     </row>
     <row r="17" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="67">
         <v>5</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="65">
         <v>2</v>
       </c>
     </row>
@@ -1478,59 +1455,59 @@
       <c r="A18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
     </row>
     <row r="19" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="21" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="65"/>
     </row>
     <row r="22" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="65"/>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="66"/>
     </row>
     <row r="24" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="67">
         <v>4</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1538,38 +1515,38 @@
       <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="65"/>
     </row>
     <row r="27" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="65"/>
     </row>
     <row r="28" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="66"/>
     </row>
     <row r="29" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
     </row>
     <row r="30" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="67">
         <v>4</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="65">
         <v>2</v>
       </c>
     </row>
@@ -1577,52 +1554,52 @@
       <c r="A31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="65"/>
     </row>
     <row r="32" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="65"/>
     </row>
     <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="55"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="65"/>
     </row>
     <row r="34" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="55"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="65"/>
     </row>
     <row r="35" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="56"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="66"/>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="67">
         <v>0</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="65">
         <v>3</v>
       </c>
     </row>
@@ -1630,38 +1607,38 @@
       <c r="A38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="65"/>
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="65"/>
     </row>
     <row r="40" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="66"/>
     </row>
     <row r="41" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
     </row>
     <row r="42" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="67">
         <v>4</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1669,29 +1646,29 @@
       <c r="A43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="55"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="65"/>
     </row>
     <row r="44" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="55"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="65"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="66"/>
     </row>
     <row r="46" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="54"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
     </row>
     <row r="47" spans="1:3" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -1705,20 +1682,20 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="67">
         <v>1</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="65">
         <v>1</v>
       </c>
     </row>
@@ -1726,17 +1703,22 @@
       <c r="A50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="56"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B30:B35"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="C42:C45"/>
     <mergeCell ref="B42:B45"/>
@@ -1746,17 +1728,12 @@
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1769,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A1:O940"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,13 +1789,13 @@
       <c r="C2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="59" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -1837,10 +1814,10 @@
         <v>71</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="74"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -1849,16 +1826,16 @@
       <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="58">
         <v>91</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="55">
         <v>1</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="60">
         <v>0</v>
       </c>
       <c r="G3" s="17">
@@ -1884,13 +1861,13 @@
       <c r="L3" s="1">
         <v>40</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="73" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1901,22 +1878,22 @@
       <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="58">
         <v>26</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="73">
+      <c r="E4" s="55"/>
+      <c r="F4" s="60">
         <v>9</v>
       </c>
       <c r="G4" s="17">
-        <f t="shared" ref="G3:G11" si="2">D4+E4*2+F4</f>
+        <f t="shared" ref="G4:G11" si="2">D4+E4*2+F4</f>
         <v>35</v>
       </c>
       <c r="H4" s="23">
-        <f t="shared" ref="H3:H11" si="3">A4+B4</f>
+        <f t="shared" ref="H4:H11" si="3">A4+B4</f>
         <v>2</v>
       </c>
       <c r="I4" s="22">
@@ -1934,9 +1911,9 @@
       <c r="L4" s="1">
         <v>-5</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="73"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -1945,16 +1922,16 @@
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="58">
         <v>127</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="55">
         <v>1</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="60">
         <v>0</v>
       </c>
       <c r="G5" s="17">
@@ -1980,13 +1957,13 @@
       <c r="L5" s="1">
         <v>-19</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="75"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -1995,16 +1972,16 @@
       <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="58">
         <v>73</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="55">
         <v>1</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="60">
         <v>0</v>
       </c>
       <c r="G6" s="17">
@@ -2030,13 +2007,13 @@
       <c r="L6" s="1">
         <v>-8</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="75"/>
+      <c r="O6" s="73"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -2045,16 +2022,16 @@
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="58">
         <v>80</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="55">
         <v>1</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="60">
         <v>8</v>
       </c>
       <c r="G7" s="17">
@@ -2080,13 +2057,13 @@
       <c r="L7" s="1">
         <v>-1</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="75"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -2095,14 +2072,14 @@
       <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="58">
         <v>20</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="73">
+      <c r="E8" s="55"/>
+      <c r="F8" s="60">
         <v>14</v>
       </c>
       <c r="G8" s="17">
@@ -2128,9 +2105,9 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="75"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="73"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -2139,14 +2116,14 @@
       <c r="B9" s="17">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="58">
         <v>90</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="73">
+      <c r="E9" s="55"/>
+      <c r="F9" s="60">
         <v>0</v>
       </c>
       <c r="G9" s="17">
@@ -2172,9 +2149,9 @@
       <c r="L9" s="1">
         <v>-24</v>
       </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="75"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="73"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -2186,11 +2163,11 @@
       <c r="C10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="58">
         <v>0</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="73">
+      <c r="E10" s="55"/>
+      <c r="F10" s="60">
         <v>3</v>
       </c>
       <c r="G10" s="17">
@@ -2216,9 +2193,9 @@
       <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="75"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="73"/>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -2230,11 +2207,11 @@
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="58">
         <v>0</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="73">
+      <c r="E11" s="55"/>
+      <c r="F11" s="60">
         <v>3</v>
       </c>
       <c r="G11" s="17">
@@ -2260,20 +2237,20 @@
       <c r="L11" s="1">
         <v>8</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="73"/>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="71">
+      <c r="D12" s="58">
         <f t="shared" ref="D12:F12" si="5">SUM(D3:D11)</f>
         <v>507</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="55">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="60">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
@@ -2315,10 +2292,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="29" t="s">
         <v>62</v>
       </c>
@@ -2331,10 +2308,10 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="61"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="30" t="s">
         <v>57</v>
       </c>
@@ -2362,10 +2339,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="30" t="s">
         <v>79</v>
       </c>
@@ -2381,10 +2358,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="30" t="s">
         <v>56</v>
       </c>
@@ -2401,10 +2378,10 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="30" t="s">
         <v>20</v>
       </c>
@@ -2420,10 +2397,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="61"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="30" t="s">
         <v>27</v>
       </c>
@@ -2439,10 +2416,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="30" t="s">
         <v>26</v>
       </c>
@@ -2458,10 +2435,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
@@ -2477,10 +2454,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="30" t="s">
         <v>53</v>
       </c>
@@ -2500,10 +2477,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="30" t="s">
         <v>35</v>
       </c>
@@ -2534,20 +2511,20 @@
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
     </row>
     <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="74" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="51" t="s">
@@ -2579,7 +2556,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="65"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="22">
         <f>K3</f>
         <v>39.612612612612622</v>
@@ -2848,20 +2825,20 @@
     </row>
     <row r="41" spans="3:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
     </row>
     <row r="43" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="74" t="s">
         <v>81</v>
       </c>
       <c r="D43" s="51" t="s">
@@ -2893,26 +2870,26 @@
       </c>
     </row>
     <row r="44" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="65"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="41">
         <v>40</v>
       </c>
-      <c r="E44" s="66">
+      <c r="E44" s="53">
         <v>5</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="53">
         <v>19</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="53">
         <v>8</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="53">
         <v>1</v>
       </c>
       <c r="I44" s="41">
         <v>1</v>
       </c>
-      <c r="J44" s="66">
+      <c r="J44" s="53">
         <v>24</v>
       </c>
       <c r="K44" s="41">
@@ -3026,7 +3003,7 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="1">
-        <f t="shared" ref="M46:M53" si="12">SUM(D50:L50)</f>
+        <f t="shared" ref="M50:M53" si="12">SUM(D50:L50)</f>
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +3073,7 @@
     <row r="54" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <f t="shared" ref="E54:L54" si="13">SUM(E45:E53)</f>
+        <f t="shared" ref="E54:J54" si="13">SUM(E45:E53)</f>
         <v>5</v>
       </c>
       <c r="F54" s="1">
@@ -4026,28 +4003,28 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D28:L28">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:L37">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:L53">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K11">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:L53">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
